--- a/result/ket_qua_vong_1.xlsx
+++ b/result/ket_qua_vong_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rankingTemp\music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gdpt-minh-tin\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1082,9 +1082,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
@@ -1097,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1150,12 +1148,6 @@
     <xf numFmtId="45" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1189,6 +1181,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3649,34 +3648,34 @@
     </row>
     <row r="23" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="F26" s="30" t="s">
+      <c r="D26" s="28"/>
+      <c r="F26" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="I26" s="30" t="s">
+      <c r="G26" s="28"/>
+      <c r="I26" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="J26" s="30"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AD22">
@@ -3706,7 +3705,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:R19"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3723,1119 +3722,1119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="18" t="s">
         <v>205</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="18" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="26" t="str">
+      <c r="D2" s="24" t="str">
         <f t="shared" ref="D2:D19" si="0">B2&amp;" "&amp;C2</f>
         <v>Ánh Trinhh xđ</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <v>20</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="24">
         <v>14210</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="24">
         <v>15</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="24">
         <v>5</v>
       </c>
-      <c r="J2" s="26">
-        <v>0</v>
-      </c>
-      <c r="K2" s="26">
+      <c r="J2" s="24">
+        <v>0</v>
+      </c>
+      <c r="K2" s="24">
         <v>3</v>
       </c>
-      <c r="L2" s="26">
-        <v>0</v>
-      </c>
-      <c r="M2" s="26">
-        <v>0</v>
-      </c>
-      <c r="N2" s="27">
+      <c r="L2" s="24">
+        <v>0</v>
+      </c>
+      <c r="M2" s="24">
+        <v>0</v>
+      </c>
+      <c r="N2" s="25">
         <v>1.793981481481481E-3</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="31">
         <f>H2*60</f>
         <v>900</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="31">
         <f>Q2</f>
         <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="26" t="str">
+      <c r="D3" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Bích Đỗ</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <v>20</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="26">
         <v>12100</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="26">
         <v>14</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="26">
         <v>5</v>
       </c>
-      <c r="J3" s="28">
-        <v>0</v>
-      </c>
-      <c r="K3" s="28">
+      <c r="J3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="26">
         <v>5</v>
       </c>
-      <c r="L3" s="28">
-        <v>0</v>
-      </c>
-      <c r="M3" s="28">
-        <v>0</v>
-      </c>
-      <c r="N3" s="29">
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26">
+        <v>0</v>
+      </c>
+      <c r="N3" s="27">
         <v>3.2175925925925931E-3</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="31">
         <f t="shared" ref="Q3:Q19" si="1">H3*60</f>
         <v>840</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="31">
         <f t="shared" ref="R3:R19" si="2">Q3</f>
         <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Tô Hoàng Duy</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>20</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>10530</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>13</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <v>5</v>
       </c>
-      <c r="J4" s="26">
-        <v>0</v>
-      </c>
-      <c r="K4" s="26">
+      <c r="J4" s="24">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24">
         <v>5</v>
       </c>
-      <c r="L4" s="26">
-        <v>0</v>
-      </c>
-      <c r="M4" s="26">
-        <v>0</v>
-      </c>
-      <c r="N4" s="27">
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
         <v>4.9305555555555552E-3</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="31">
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="31">
         <f t="shared" si="2"/>
         <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="26" t="str">
+      <c r="D5" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Ánh Tình</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>20</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="26">
         <v>9140</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="26">
         <v>11</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="26">
         <v>5</v>
       </c>
-      <c r="J5" s="28">
-        <v>0</v>
-      </c>
-      <c r="K5" s="28">
+      <c r="J5" s="26">
+        <v>0</v>
+      </c>
+      <c r="K5" s="26">
         <v>7</v>
       </c>
-      <c r="L5" s="28">
-        <v>0</v>
-      </c>
-      <c r="M5" s="28">
-        <v>0</v>
-      </c>
-      <c r="N5" s="29">
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26">
+        <v>0</v>
+      </c>
+      <c r="N5" s="27">
         <v>3.333333333333334E-3</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="31">
         <f t="shared" si="1"/>
         <v>660</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="31">
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="26" t="str">
+      <c r="D6" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Xuân Hoa</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>20</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>8480</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>10</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <v>5</v>
       </c>
-      <c r="J6" s="26">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
         <v>7</v>
       </c>
-      <c r="L6" s="26">
-        <v>0</v>
-      </c>
-      <c r="M6" s="26">
-        <v>0</v>
-      </c>
-      <c r="N6" s="27">
+      <c r="L6" s="24">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
         <v>6.7013888888888887E-3</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="31">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="31">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="D7" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Quỳnh Như</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <v>20</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <v>7510</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <v>9</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="26">
         <v>5</v>
       </c>
-      <c r="J7" s="28">
-        <v>0</v>
-      </c>
-      <c r="K7" s="28">
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
         <v>9</v>
       </c>
-      <c r="L7" s="28">
-        <v>0</v>
-      </c>
-      <c r="M7" s="28">
-        <v>0</v>
-      </c>
-      <c r="N7" s="29">
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
         <v>3.391203703703704E-3</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="31">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="31">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="26" t="str">
+      <c r="D8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Hoàng Đức Đỗ</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <v>20</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <v>8250</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <v>9</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="26">
         <v>5</v>
       </c>
-      <c r="J8" s="28">
-        <v>0</v>
-      </c>
-      <c r="K8" s="28">
+      <c r="J8" s="26">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26">
         <v>9</v>
       </c>
-      <c r="L8" s="28">
-        <v>0</v>
-      </c>
-      <c r="M8" s="28">
-        <v>0</v>
-      </c>
-      <c r="N8" s="29">
+      <c r="L8" s="26">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26">
+        <v>0</v>
+      </c>
+      <c r="N8" s="27">
         <v>3.4375E-3</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="31">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="31">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="D9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Thùy Duyên</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <v>20</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="24">
         <v>8120</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="24">
         <v>9</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="24">
         <v>5</v>
       </c>
-      <c r="J9" s="26">
-        <v>0</v>
-      </c>
-      <c r="K9" s="26">
+      <c r="J9" s="24">
+        <v>0</v>
+      </c>
+      <c r="K9" s="24">
         <v>9</v>
       </c>
-      <c r="L9" s="26">
-        <v>0</v>
-      </c>
-      <c r="M9" s="26">
-        <v>0</v>
-      </c>
-      <c r="N9" s="27">
+      <c r="L9" s="24">
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
         <v>5.5324074074074078E-3</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="31">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="31">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="26" t="str">
+      <c r="D10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Huyền Diệu</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <v>20</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="24">
         <v>7360</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <v>9</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <v>5</v>
       </c>
-      <c r="J10" s="26">
-        <v>0</v>
-      </c>
-      <c r="K10" s="26">
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
         <v>9</v>
       </c>
-      <c r="L10" s="26">
-        <v>0</v>
-      </c>
-      <c r="M10" s="26">
-        <v>0</v>
-      </c>
-      <c r="N10" s="27">
+      <c r="L10" s="24">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
         <v>8.4259259259259253E-3</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="31">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="31">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="26" t="str">
+      <c r="D11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Kiều Diễm</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <v>20</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="26">
         <v>6910</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="26">
         <v>8</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="26">
         <v>5</v>
       </c>
-      <c r="J11" s="28">
-        <v>0</v>
-      </c>
-      <c r="K11" s="28">
+      <c r="J11" s="26">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26">
         <v>10</v>
       </c>
-      <c r="L11" s="28">
-        <v>0</v>
-      </c>
-      <c r="M11" s="28">
-        <v>0</v>
-      </c>
-      <c r="N11" s="29">
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0</v>
+      </c>
+      <c r="N11" s="27">
         <v>3.0555555555555561E-3</v>
       </c>
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="31">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="31">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D12" s="26" t="str">
+      <c r="D12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Cẩm viên</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <v>20</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="24">
         <v>7020</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="24">
         <v>8</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="24">
         <v>5</v>
       </c>
-      <c r="J12" s="26">
-        <v>0</v>
-      </c>
-      <c r="K12" s="26">
+      <c r="J12" s="24">
+        <v>0</v>
+      </c>
+      <c r="K12" s="24">
         <v>10</v>
       </c>
-      <c r="L12" s="26">
-        <v>0</v>
-      </c>
-      <c r="M12" s="26">
-        <v>0</v>
-      </c>
-      <c r="N12" s="27">
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0</v>
+      </c>
+      <c r="N12" s="25">
         <v>5.1041666666666666E-3</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="31">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="31">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="26" t="str">
+      <c r="D13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Kim Tiến</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <v>20</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <v>7160</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="26">
         <v>8</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="26">
         <v>5</v>
       </c>
-      <c r="J13" s="28">
-        <v>0</v>
-      </c>
-      <c r="K13" s="28">
+      <c r="J13" s="26">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26">
         <v>9</v>
       </c>
-      <c r="L13" s="28">
-        <v>0</v>
-      </c>
-      <c r="M13" s="28">
-        <v>0</v>
-      </c>
-      <c r="N13" s="29">
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26">
+        <v>0</v>
+      </c>
+      <c r="N13" s="27">
         <v>7.6504629629629631E-3</v>
       </c>
-      <c r="O13" s="28" t="s">
+      <c r="O13" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="31">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="31">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Thu Lựu</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>20</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="24">
         <v>5240</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="24">
         <v>7</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="24">
         <v>5</v>
       </c>
-      <c r="J14" s="26">
-        <v>0</v>
-      </c>
-      <c r="K14" s="26">
+      <c r="J14" s="24">
+        <v>0</v>
+      </c>
+      <c r="K14" s="24">
         <v>12</v>
       </c>
-      <c r="L14" s="26">
-        <v>0</v>
-      </c>
-      <c r="M14" s="26">
-        <v>0</v>
-      </c>
-      <c r="N14" s="27">
+      <c r="L14" s="24">
+        <v>0</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0</v>
+      </c>
+      <c r="N14" s="25">
         <v>3.0787037037037042E-3</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="31">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="31">
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="D15" s="26" t="str">
+      <c r="D15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Kim hương</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="26">
         <v>20</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <v>6130</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="26">
         <v>6</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="26">
         <v>5</v>
       </c>
-      <c r="J15" s="28">
-        <v>0</v>
-      </c>
-      <c r="K15" s="28">
+      <c r="J15" s="26">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26">
         <v>11</v>
       </c>
-      <c r="L15" s="28">
-        <v>0</v>
-      </c>
-      <c r="M15" s="28">
-        <v>0</v>
-      </c>
-      <c r="N15" s="29">
+      <c r="L15" s="26">
+        <v>0</v>
+      </c>
+      <c r="M15" s="26">
+        <v>0</v>
+      </c>
+      <c r="N15" s="27">
         <v>2.650462962962963E-3</v>
       </c>
-      <c r="O15" s="28" t="s">
+      <c r="O15" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="31">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="31">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="26" t="str">
+      <c r="D16" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Vương thị Hoài thương</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="26">
         <v>20</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="26">
         <v>5610</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="26">
         <v>6</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="26">
         <v>5</v>
       </c>
-      <c r="J16" s="28">
-        <v>0</v>
-      </c>
-      <c r="K16" s="28">
+      <c r="J16" s="26">
+        <v>0</v>
+      </c>
+      <c r="K16" s="26">
         <v>12</v>
       </c>
-      <c r="L16" s="28">
-        <v>0</v>
-      </c>
-      <c r="M16" s="28">
-        <v>0</v>
-      </c>
-      <c r="N16" s="29">
+      <c r="L16" s="26">
+        <v>0</v>
+      </c>
+      <c r="M16" s="26">
+        <v>0</v>
+      </c>
+      <c r="N16" s="27">
         <v>2.8472222222222219E-3</v>
       </c>
-      <c r="O16" s="28" t="s">
+      <c r="O16" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="31">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="31">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="26" t="str">
+      <c r="D17" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Huyền trinh</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="26">
         <v>19</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="26">
         <v>4150</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="26">
         <v>5</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="26">
         <v>4</v>
       </c>
-      <c r="J17" s="28">
-        <v>0</v>
-      </c>
-      <c r="K17" s="28">
+      <c r="J17" s="26">
+        <v>0</v>
+      </c>
+      <c r="K17" s="26">
         <v>13</v>
       </c>
-      <c r="L17" s="28">
-        <v>0</v>
-      </c>
-      <c r="M17" s="28">
+      <c r="L17" s="26">
+        <v>0</v>
+      </c>
+      <c r="M17" s="26">
         <v>1</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="27">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="O17" s="28" t="s">
+      <c r="O17" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="31">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="31">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D18" s="26" t="str">
+      <c r="D18" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Duy Văn</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>16</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="24">
         <v>6880</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="24">
         <v>4</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="24">
         <v>1</v>
       </c>
-      <c r="J18" s="26">
-        <v>0</v>
-      </c>
-      <c r="K18" s="26">
+      <c r="J18" s="24">
+        <v>0</v>
+      </c>
+      <c r="K18" s="24">
         <v>10</v>
       </c>
-      <c r="L18" s="26">
-        <v>0</v>
-      </c>
-      <c r="M18" s="26">
+      <c r="L18" s="24">
+        <v>0</v>
+      </c>
+      <c r="M18" s="24">
         <v>4</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="25">
         <v>2.476851851851852E-3</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="31">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="31">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="26" t="str">
+      <c r="D19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Duyên Duyên</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>16</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="24">
         <v>5620</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="24">
         <v>3</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <v>1</v>
       </c>
-      <c r="J19" s="26">
-        <v>0</v>
-      </c>
-      <c r="K19" s="26">
+      <c r="J19" s="24">
+        <v>0</v>
+      </c>
+      <c r="K19" s="24">
         <v>11</v>
       </c>
-      <c r="L19" s="26">
-        <v>0</v>
-      </c>
-      <c r="M19" s="26">
+      <c r="L19" s="24">
+        <v>0</v>
+      </c>
+      <c r="M19" s="24">
         <v>4</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="25">
         <v>2.44212962962963E-3</v>
       </c>
-      <c r="O19" s="26" t="s">
+      <c r="O19" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="31">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="31">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>

--- a/result/ket_qua_vong_1.xlsx
+++ b/result/ket_qua_vong_1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gdpt-minh-tin\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gdpt-minh-tin\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10116" windowHeight="3300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="294">
   <si>
     <t>#</t>
   </si>
@@ -909,10 +909,10 @@
     <t>Họ tên</t>
   </si>
   <si>
-    <t>Điểm Vòng 1</t>
-  </si>
-  <si>
     <t>Tổng điểm</t>
+  </si>
+  <si>
+    <t>Điểm vòng 1</t>
   </si>
 </sst>
 </file>
@@ -1178,9 +1178,6 @@
     <xf numFmtId="45" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,6 +1185,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3648,34 +3648,34 @@
     </row>
     <row r="23" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="F26" s="28" t="s">
+      <c r="D26" s="31"/>
+      <c r="F26" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="I26" s="28" t="s">
+      <c r="G26" s="31"/>
+      <c r="I26" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="J26" s="28"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AD22">
@@ -3702,10 +3702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3721,7 +3721,7 @@
     <col min="16" max="16" width="9.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>199</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>203</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>6</v>
@@ -3773,11 +3773,8 @@
       <c r="Q1" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="R1" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -3824,19 +3821,15 @@
       <c r="O2" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="Q2" s="31">
-        <f>H2*60</f>
-        <v>900</v>
-      </c>
-      <c r="R2" s="31">
-        <f>Q2</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="30">
+        <f>H2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -3883,19 +3876,15 @@
       <c r="O3" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="Q3" s="31">
-        <f t="shared" ref="Q3:Q19" si="1">H3*60</f>
-        <v>840</v>
-      </c>
-      <c r="R3" s="31">
-        <f t="shared" ref="R3:R19" si="2">Q3</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="30">
+        <f t="shared" ref="Q3:Q19" si="1">H3</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -3942,19 +3931,15 @@
       <c r="O4" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="30">
         <f t="shared" si="1"/>
-        <v>780</v>
-      </c>
-      <c r="R4" s="31">
-        <f t="shared" si="2"/>
-        <v>780</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -4001,19 +3986,15 @@
       <c r="O5" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="30">
         <f t="shared" si="1"/>
-        <v>660</v>
-      </c>
-      <c r="R5" s="31">
-        <f t="shared" si="2"/>
-        <v>660</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -4060,19 +4041,15 @@
       <c r="O6" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="30">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="R6" s="31">
-        <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -4119,19 +4096,15 @@
       <c r="O7" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="30">
         <f t="shared" si="1"/>
-        <v>540</v>
-      </c>
-      <c r="R7" s="31">
-        <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -4178,19 +4151,15 @@
       <c r="O8" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="30">
         <f t="shared" si="1"/>
-        <v>540</v>
-      </c>
-      <c r="R8" s="31">
-        <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -4237,19 +4206,15 @@
       <c r="O9" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="30">
         <f t="shared" si="1"/>
-        <v>540</v>
-      </c>
-      <c r="R9" s="31">
-        <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -4296,19 +4261,15 @@
       <c r="O10" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P10" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="30">
         <f t="shared" si="1"/>
-        <v>540</v>
-      </c>
-      <c r="R10" s="31">
-        <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -4355,19 +4316,15 @@
       <c r="O11" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="R11" s="31">
-        <f t="shared" si="2"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -4414,19 +4371,15 @@
       <c r="O12" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="P12" s="29" t="s">
+      <c r="P12" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="30">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="R12" s="31">
-        <f t="shared" si="2"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -4473,19 +4426,15 @@
       <c r="O13" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="P13" s="30" t="s">
+      <c r="P13" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="30">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="R13" s="31">
-        <f t="shared" si="2"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -4532,19 +4481,15 @@
       <c r="O14" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="P14" s="29" t="s">
+      <c r="P14" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="30">
         <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-      <c r="R14" s="31">
-        <f t="shared" si="2"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -4591,19 +4536,15 @@
       <c r="O15" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="30">
         <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="R15" s="31">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -4650,19 +4591,15 @@
       <c r="O16" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="P16" s="29" t="s">
+      <c r="P16" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="30">
         <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="R16" s="31">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -4709,19 +4646,15 @@
       <c r="O17" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="P17" s="30" t="s">
+      <c r="P17" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="30">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="R17" s="31">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -4768,19 +4701,15 @@
       <c r="O18" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="P18" s="29" t="s">
+      <c r="P18" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="30">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="R18" s="31">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>18</v>
       </c>
@@ -4827,16 +4756,12 @@
       <c r="O19" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="P19" s="30" t="s">
+      <c r="P19" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="30">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="R19" s="31">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
